--- a/doc/perf.xlsx
+++ b/doc/perf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="compare" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Kfl</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>YARI</t>
+  </si>
+  <si>
+    <t>Jazelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>LC</t>
   </si>
 </sst>
 </file>
@@ -81,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,9 +130,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>compare!$B$6:$H$6</c:f>
+              <c:f>compare!$B$6:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>jamuth</c:v>
                 </c:pt>
@@ -140,16 +153,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>YARI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jazelle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare!$B$7:$H$7</c:f>
+              <c:f>compare!$B$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.16425914295376587</c:v>
                 </c:pt>
@@ -170,6 +186,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.9199961350789894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0884583796318661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -191,9 +210,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>compare!$B$6:$H$6</c:f>
+              <c:f>compare!$B$6:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>jamuth</c:v>
                 </c:pt>
@@ -214,36 +233,42 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>YARI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jazelle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare!$B$8:$H$8</c:f>
+              <c:f>compare!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.16361256544502617</c:v>
+                  <c:v>0.16205704407951599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31435427574171032</c:v>
+                  <c:v>0.31136560069144337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62870855148342064</c:v>
+                  <c:v>0.62273120138288673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69971640488656195</c:v>
+                  <c:v>0.69306395851339675</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3034467713787086</c:v>
+                  <c:v>1.2910544511668107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9308464223385688</c:v>
+                  <c:v>1.9124891961970614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2527009507346587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -265,9 +290,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>compare!$B$6:$H$6</c:f>
+              <c:f>compare!$B$6:$I$6</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>jamuth</c:v>
                 </c:pt>
@@ -288,16 +313,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>YARI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jazelle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare!$B$9:$H$9</c:f>
+              <c:f>compare!$B$9:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -305,7 +333,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59438961544071178</c:v>
+                  <c:v>0.58205189240656985</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -314,33 +342,36 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2370071466770383</c:v>
+                  <c:v>1.2113306355629612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8686858865282707</c:v>
+                  <c:v>1.8298976434182337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="60860672"/>
-        <c:axId val="60878848"/>
+        <c:axId val="64334080"/>
+        <c:axId val="64352256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="60860672"/>
+        <c:axId val="64334080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60878848"/>
+        <c:crossAx val="64352256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60878848"/>
+        <c:axId val="64352256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -366,7 +397,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60860672"/>
+        <c:crossAx val="64334080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -384,7 +415,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -415,9 +446,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>compare!$B$1:$H$1</c:f>
+              <c:f>compare!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>jamuth</c:v>
                 </c:pt>
@@ -438,16 +469,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>YARI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jazelle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare!$B$2:$H$2</c:f>
+              <c:f>compare!$B$2:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3400</c:v>
                 </c:pt>
@@ -468,6 +502,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>39742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,9 +526,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>compare!$B$1:$H$1</c:f>
+              <c:f>compare!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>jamuth</c:v>
                 </c:pt>
@@ -512,16 +549,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>YARI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jazelle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare!$B$3:$H$3</c:f>
+              <c:f>compare!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1500</c:v>
                 </c:pt>
@@ -535,13 +575,16 @@
                   <c:v>6415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9168</c:v>
+                  <c:v>9256</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11950</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>17702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,9 +606,9 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>compare!$B$1:$H$1</c:f>
+              <c:f>compare!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>jamuth</c:v>
                 </c:pt>
@@ -586,21 +629,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>YARI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jazelle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare!$B$4:$H$4</c:f>
+              <c:f>compare!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="2">
                   <c:v>12226</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20569</c:v>
+                  <c:v>21005</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25444</c:v>
@@ -612,24 +658,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77394688"/>
-        <c:axId val="77396224"/>
+        <c:axId val="64587264"/>
+        <c:axId val="64588800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77394688"/>
+        <c:axId val="64587264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77396224"/>
+        <c:crossAx val="64588800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77396224"/>
+        <c:axId val="64588800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +706,776 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77394688"/>
+        <c:crossAx val="64587264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>trend!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kfl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>trend!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>38481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38517</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38530</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38575</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38580</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38679</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38729</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38740</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38883</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38976</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39081</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39183</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39186</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39325</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39420</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39497</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39682</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39792</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39877</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40061</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40140</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trend!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>16582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16253</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16237</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16270</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16270</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16591</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16591</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16633</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17075</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17093</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17111</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18347</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18347</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18347</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18357</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18347</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18275</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19907</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19907</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20699</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>trend!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UdpIp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>trend!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>38481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38517</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38530</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38575</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38580</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38679</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38729</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38740</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38883</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38976</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39081</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39183</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39186</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39325</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39420</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39497</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39682</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39792</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39877</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40061</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40140</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trend!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>6849</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6838</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6262</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6262</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6262</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6365</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6365</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6522</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6537</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6692</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6809</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6775</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6889</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6775</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6781</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8520</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8371</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8308</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8511</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8511</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8474</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8837</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8837</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8856</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9031</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9168</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>trend!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lift</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>trend!$A$2:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>38481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38517</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38530</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38575</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38580</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38679</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38728</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38729</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38739</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38740</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38883</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38976</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39081</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39183</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39186</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39325</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39420</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39497</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39498</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39682</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39792</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39877</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40061</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40140</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trend!$D$2:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="23">
+                  <c:v>13574</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16425</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16425</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16425</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18778</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18767</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18671</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18930</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18962</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20454</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20569</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="65409024"/>
+        <c:axId val="67422080"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="65409024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="38353"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="yyyy" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67422080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="years"/>
+        <c:minorUnit val="3"/>
+        <c:minorTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="67422080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Performance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (iteration/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65409024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -674,7 +1489,300 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>trend!$E$1:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LC         </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>trend!$A$5:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>38517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38530</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38559</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38679</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38729</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38740</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38883</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39025</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39025</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39081</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39183</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39186</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39325</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39420</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39497</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39498</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39682</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39792</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39877</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40061</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40134</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40140</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>trend!$E$5:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>2711</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2716</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2827</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2680</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2722</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2778</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2778</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2687</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2906</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3091</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3092</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3579</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3486</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3496</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3502</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3615</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="104635008"/>
+        <c:axId val="104651776"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="104635008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="38353"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="yyyy" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104651776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="years"/>
+        <c:minorUnit val="3"/>
+        <c:minorTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="104651776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104635008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -683,14 +1791,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -720,13 +1828,78 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>541020</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1029,15 +2202,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +2232,11 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1085,8 +2261,11 @@
       <c r="H2">
         <v>39742</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>43229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +2282,7 @@
         <v>6415</v>
       </c>
       <c r="F3">
-        <v>9168</v>
+        <v>9256</v>
       </c>
       <c r="G3">
         <v>11950</v>
@@ -1111,8 +2290,11 @@
       <c r="H3">
         <v>17702</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>11595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1120,7 +2302,7 @@
         <v>12226</v>
       </c>
       <c r="F4">
-        <v>20569</v>
+        <v>21005</v>
       </c>
       <c r="G4">
         <v>25444</v>
@@ -1129,7 +2311,7 @@
         <v>38437</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1151,104 +2333,119 @@
       <c r="H6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <f>B2/$F2</f>
+        <f t="shared" ref="B7:H9" si="0">B2/$F2</f>
         <v>0.16425914295376587</v>
       </c>
       <c r="C7">
-        <f>C2/$F2</f>
+        <f t="shared" si="0"/>
         <v>0.47794579448282526</v>
       </c>
       <c r="D7">
-        <f>D2/$F2</f>
+        <f t="shared" si="0"/>
         <v>0.55896420116913859</v>
       </c>
       <c r="E7">
-        <f>E2/$F2</f>
+        <f t="shared" si="0"/>
         <v>0.68351128073819989</v>
       </c>
       <c r="F7">
-        <f>F2/$F2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7">
-        <f>G2/$F2</f>
+        <f t="shared" si="0"/>
         <v>1.1504420503405961</v>
       </c>
       <c r="H7">
-        <f>H2/$F2</f>
+        <f t="shared" si="0"/>
         <v>1.9199961350789894</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <f t="shared" ref="I7" si="1">I2/$F2</f>
+        <v>2.0884583796318661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <f>B3/$F3</f>
-        <v>0.16361256544502617</v>
+        <f t="shared" si="0"/>
+        <v>0.16205704407951599</v>
       </c>
       <c r="C8">
-        <f>C3/$F3</f>
-        <v>0.31435427574171032</v>
+        <f t="shared" si="0"/>
+        <v>0.31136560069144337</v>
       </c>
       <c r="D8">
-        <f>D3/$F3</f>
-        <v>0.62870855148342064</v>
+        <f t="shared" si="0"/>
+        <v>0.62273120138288673</v>
       </c>
       <c r="E8">
-        <f>E3/$F3</f>
-        <v>0.69971640488656195</v>
+        <f t="shared" si="0"/>
+        <v>0.69306395851339675</v>
       </c>
       <c r="F8">
-        <f>F3/$F3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8">
-        <f>G3/$F3</f>
-        <v>1.3034467713787086</v>
+        <f t="shared" si="0"/>
+        <v>1.2910544511668107</v>
       </c>
       <c r="H8">
-        <f>H3/$F3</f>
-        <v>1.9308464223385688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>1.9124891961970614</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8" si="2">I3/$F3</f>
+        <v>1.2527009507346587</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9">
-        <f>B4/$F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9">
-        <f>C4/$F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>D4/$F4</f>
-        <v>0.59438961544071178</v>
+        <f t="shared" si="0"/>
+        <v>0.58205189240656985</v>
       </c>
       <c r="E9">
-        <f>E4/$F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F4/$F4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9">
-        <f>G4/$F4</f>
-        <v>1.2370071466770383</v>
+        <f t="shared" si="0"/>
+        <v>1.2113306355629612</v>
       </c>
       <c r="H9">
-        <f>H4/$F4</f>
-        <v>1.8686858865282707</v>
+        <f t="shared" si="0"/>
+        <v>1.8298976434182337</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9" si="3">I4/$F4</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1260,14 +2457,581 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>38481</v>
+      </c>
+      <c r="B2">
+        <v>16582</v>
+      </c>
+      <c r="C2">
+        <v>6849</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>38516</v>
+      </c>
+      <c r="B3">
+        <v>16599</v>
+      </c>
+      <c r="C3">
+        <v>6838</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>38516</v>
+      </c>
+      <c r="B4">
+        <v>16384</v>
+      </c>
+      <c r="C4">
+        <v>6405</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>38517</v>
+      </c>
+      <c r="B5">
+        <v>16591</v>
+      </c>
+      <c r="C5">
+        <v>6838</v>
+      </c>
+      <c r="E5">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>38530</v>
+      </c>
+      <c r="B6">
+        <v>16367</v>
+      </c>
+      <c r="C6">
+        <v>6405</v>
+      </c>
+      <c r="E6">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>38559</v>
+      </c>
+      <c r="B7">
+        <v>16367</v>
+      </c>
+      <c r="C7">
+        <v>6405</v>
+      </c>
+      <c r="E7">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>38564</v>
+      </c>
+      <c r="B8">
+        <v>16384</v>
+      </c>
+      <c r="C8">
+        <v>6405</v>
+      </c>
+      <c r="E8">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>38575</v>
+      </c>
+      <c r="B9">
+        <v>16367</v>
+      </c>
+      <c r="C9">
+        <v>6405</v>
+      </c>
+      <c r="E9">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>38580</v>
+      </c>
+      <c r="B10">
+        <v>16253</v>
+      </c>
+      <c r="C10">
+        <v>6258</v>
+      </c>
+      <c r="E10">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>38679</v>
+      </c>
+      <c r="B11">
+        <v>16237</v>
+      </c>
+      <c r="C11">
+        <v>6262</v>
+      </c>
+      <c r="E11">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>38679</v>
+      </c>
+      <c r="B12">
+        <v>16270</v>
+      </c>
+      <c r="C12">
+        <v>6272</v>
+      </c>
+      <c r="E12">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>38718</v>
+      </c>
+      <c r="B13">
+        <v>16270</v>
+      </c>
+      <c r="C13">
+        <v>6262</v>
+      </c>
+      <c r="E13">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>38728</v>
+      </c>
+      <c r="B14">
+        <v>16270</v>
+      </c>
+      <c r="C14">
+        <v>6262</v>
+      </c>
+      <c r="E14">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>38729</v>
+      </c>
+      <c r="B15">
+        <v>16270</v>
+      </c>
+      <c r="C15">
+        <v>6262</v>
+      </c>
+      <c r="E15">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>38729</v>
+      </c>
+      <c r="B16">
+        <v>16591</v>
+      </c>
+      <c r="C16">
+        <v>6365</v>
+      </c>
+      <c r="E16">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>38739</v>
+      </c>
+      <c r="B17">
+        <v>16591</v>
+      </c>
+      <c r="C17">
+        <v>6365</v>
+      </c>
+      <c r="E17">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>38740</v>
+      </c>
+      <c r="B18">
+        <v>16591</v>
+      </c>
+      <c r="C18">
+        <v>6522</v>
+      </c>
+      <c r="E18">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>38883</v>
+      </c>
+      <c r="B19">
+        <v>16633</v>
+      </c>
+      <c r="C19">
+        <v>6537</v>
+      </c>
+      <c r="E19">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>38976</v>
+      </c>
+      <c r="B20">
+        <v>17075</v>
+      </c>
+      <c r="C20">
+        <v>6692</v>
+      </c>
+      <c r="E20">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>38998</v>
+      </c>
+      <c r="B21">
+        <v>17093</v>
+      </c>
+      <c r="C21">
+        <v>6809</v>
+      </c>
+      <c r="E21">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>39025</v>
+      </c>
+      <c r="B22">
+        <v>17111</v>
+      </c>
+      <c r="C22">
+        <v>6775</v>
+      </c>
+      <c r="E22">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>39025</v>
+      </c>
+      <c r="B23">
+        <v>17138</v>
+      </c>
+      <c r="C23">
+        <v>6889</v>
+      </c>
+      <c r="E23">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>39081</v>
+      </c>
+      <c r="B24">
+        <v>17111</v>
+      </c>
+      <c r="C24">
+        <v>6775</v>
+      </c>
+      <c r="E24">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>39183</v>
+      </c>
+      <c r="B25">
+        <v>17120</v>
+      </c>
+      <c r="C25">
+        <v>6781</v>
+      </c>
+      <c r="D25">
+        <v>13574</v>
+      </c>
+      <c r="E25">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>39186</v>
+      </c>
+      <c r="B26">
+        <v>18347</v>
+      </c>
+      <c r="C26">
+        <v>8520</v>
+      </c>
+      <c r="D26">
+        <v>16425</v>
+      </c>
+      <c r="E26">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>39325</v>
+      </c>
+      <c r="B27">
+        <v>18347</v>
+      </c>
+      <c r="C27">
+        <v>8371</v>
+      </c>
+      <c r="D27">
+        <v>16425</v>
+      </c>
+      <c r="E27">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>39420</v>
+      </c>
+      <c r="B28">
+        <v>18347</v>
+      </c>
+      <c r="C28">
+        <v>8308</v>
+      </c>
+      <c r="D28">
+        <v>16425</v>
+      </c>
+      <c r="E28">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>39497</v>
+      </c>
+      <c r="B29">
+        <v>18357</v>
+      </c>
+      <c r="C29">
+        <v>8511</v>
+      </c>
+      <c r="D29">
+        <v>18778</v>
+      </c>
+      <c r="E29">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>39498</v>
+      </c>
+      <c r="B30">
+        <v>18347</v>
+      </c>
+      <c r="C30">
+        <v>8511</v>
+      </c>
+      <c r="D30">
+        <v>18767</v>
+      </c>
+      <c r="E30">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>39682</v>
+      </c>
+      <c r="B31">
+        <v>18275</v>
+      </c>
+      <c r="C31">
+        <v>8474</v>
+      </c>
+      <c r="D31">
+        <v>18671</v>
+      </c>
+      <c r="E31">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>39792</v>
+      </c>
+      <c r="B32">
+        <v>19907</v>
+      </c>
+      <c r="C32">
+        <v>8837</v>
+      </c>
+      <c r="D32">
+        <v>18930</v>
+      </c>
+      <c r="E32">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>39877</v>
+      </c>
+      <c r="B33">
+        <v>19907</v>
+      </c>
+      <c r="C33">
+        <v>8837</v>
+      </c>
+      <c r="D33">
+        <v>18930</v>
+      </c>
+      <c r="E33">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>40061</v>
+      </c>
+      <c r="B34">
+        <v>20004</v>
+      </c>
+      <c r="C34">
+        <v>8856</v>
+      </c>
+      <c r="D34">
+        <v>18962</v>
+      </c>
+      <c r="E34">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>40134</v>
+      </c>
+      <c r="B35">
+        <v>20004</v>
+      </c>
+      <c r="C35">
+        <v>9031</v>
+      </c>
+      <c r="D35">
+        <v>20454</v>
+      </c>
+      <c r="E35">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>40140</v>
+      </c>
+      <c r="B36">
+        <v>20699</v>
+      </c>
+      <c r="C36">
+        <v>9168</v>
+      </c>
+      <c r="D36">
+        <v>20569</v>
+      </c>
+      <c r="E36">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>40145</v>
+      </c>
+      <c r="B37">
+        <v>20699</v>
+      </c>
+      <c r="C37">
+        <v>9256</v>
+      </c>
+      <c r="D37">
+        <v>21005</v>
+      </c>
+      <c r="E37">
+        <v>3748</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/doc/perf.xlsx
+++ b/doc/perf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="compare" sheetId="1" r:id="rId1"/>
@@ -167,28 +167,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.16425914295376587</c:v>
+                  <c:v>0.14132513093357718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47794579448282526</c:v>
+                  <c:v>0.41121456480172913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55896420116913859</c:v>
+                  <c:v>0.48092110732396709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.68351128073819989</c:v>
+                  <c:v>0.58807880954360292</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1504420503405961</c:v>
+                  <c:v>0.98981627732978639</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9199961350789894</c:v>
+                  <c:v>1.6519245157535956</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0884583796318661</c:v>
+                  <c:v>1.7968659073904729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -247,28 +247,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.16205704407951599</c:v>
+                  <c:v>0.14787066246056782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31136560069144337</c:v>
+                  <c:v>0.28410883280757099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62273120138288673</c:v>
+                  <c:v>0.56821766561514198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69306395851339675</c:v>
+                  <c:v>0.63239353312302837</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2910544511668107</c:v>
+                  <c:v>1.1780362776025237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9124891961970614</c:v>
+                  <c:v>1.7450709779179812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2527009507346587</c:v>
+                  <c:v>1.1430402208201893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,7 +333,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58205189240656985</c:v>
+                  <c:v>0.50296198782293899</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -342,10 +342,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2113306355629612</c:v>
+                  <c:v>1.0467335856508146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8298976434182337</c:v>
+                  <c:v>1.5812489715320059</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -354,24 +354,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64334080"/>
-        <c:axId val="64352256"/>
+        <c:axId val="63875328"/>
+        <c:axId val="63889408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64334080"/>
+        <c:axId val="63875328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64352256"/>
+        <c:crossAx val="63889408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64352256"/>
+        <c:axId val="63889408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,7 +397,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64334080"/>
+        <c:crossAx val="63875328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -415,7 +415,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -495,7 +495,7 @@
                   <c:v>14148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20699</c:v>
+                  <c:v>24058</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23813</c:v>
@@ -575,7 +575,7 @@
                   <c:v>6415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9256</c:v>
+                  <c:v>10144</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11950</c:v>
@@ -646,7 +646,7 @@
                   <c:v>12226</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21005</c:v>
+                  <c:v>24308</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>25444</c:v>
@@ -658,24 +658,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64587264"/>
-        <c:axId val="64588800"/>
+        <c:axId val="64448000"/>
+        <c:axId val="64449536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64587264"/>
+        <c:axId val="64448000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64588800"/>
+        <c:crossAx val="64449536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64588800"/>
+        <c:axId val="64449536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +706,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64587264"/>
+        <c:crossAx val="64448000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -719,7 +719,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1421,11 +1421,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65409024"/>
-        <c:axId val="67422080"/>
+        <c:axId val="64537344"/>
+        <c:axId val="64538880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="65409024"/>
+        <c:axId val="64537344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="38353"/>
@@ -1434,7 +1434,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="yyyy" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67422080"/>
+        <c:crossAx val="64538880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1444,7 +1444,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67422080"/>
+        <c:axId val="64538880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1475,7 +1475,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65409024"/>
+        <c:crossAx val="64537344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1488,7 +1488,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1739,13 +1739,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="104635008"/>
-        <c:axId val="104651776"/>
+        <c:axId val="64583936"/>
+        <c:axId val="64589824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104635008"/>
+        <c:axId val="64583936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="38353"/>
@@ -1754,7 +1753,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="yyyy" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104651776"/>
+        <c:crossAx val="64589824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1764,7 +1763,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104651776"/>
+        <c:axId val="64589824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,7 +1771,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104635008"/>
+        <c:crossAx val="64583936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,7 +1780,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2204,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -2253,7 +2252,7 @@
         <v>14148</v>
       </c>
       <c r="F2">
-        <v>20699</v>
+        <v>24058</v>
       </c>
       <c r="G2">
         <v>23813</v>
@@ -2282,7 +2281,7 @@
         <v>6415</v>
       </c>
       <c r="F3">
-        <v>9256</v>
+        <v>10144</v>
       </c>
       <c r="G3">
         <v>11950</v>
@@ -2302,7 +2301,7 @@
         <v>12226</v>
       </c>
       <c r="F4">
-        <v>21005</v>
+        <v>24308</v>
       </c>
       <c r="G4">
         <v>25444</v>
@@ -2343,19 +2342,19 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:H9" si="0">B2/$F2</f>
-        <v>0.16425914295376587</v>
+        <v>0.14132513093357718</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.47794579448282526</v>
+        <v>0.41121456480172913</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.55896420116913859</v>
+        <v>0.48092110732396709</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.68351128073819989</v>
+        <v>0.58807880954360292</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -2363,15 +2362,15 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1.1504420503405961</v>
+        <v>0.98981627732978639</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.9199961350789894</v>
+        <v>1.6519245157535956</v>
       </c>
       <c r="I7">
         <f t="shared" ref="I7" si="1">I2/$F2</f>
-        <v>2.0884583796318661</v>
+        <v>1.7968659073904729</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2380,19 +2379,19 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0.16205704407951599</v>
+        <v>0.14787066246056782</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.31136560069144337</v>
+        <v>0.28410883280757099</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.62273120138288673</v>
+        <v>0.56821766561514198</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.69306395851339675</v>
+        <v>0.63239353312302837</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -2400,15 +2399,15 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1.2910544511668107</v>
+        <v>1.1780362776025237</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.9124891961970614</v>
+        <v>1.7450709779179812</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8" si="2">I3/$F3</f>
-        <v>1.2527009507346587</v>
+        <v>1.1430402208201893</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2425,7 +2424,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.58205189240656985</v>
+        <v>0.50296198782293899</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
@@ -2437,11 +2436,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1.2113306355629612</v>
+        <v>1.0467335856508146</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.8298976434182337</v>
+        <v>1.5812489715320059</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9" si="3">I4/$F4</f>
@@ -2459,7 +2458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
